--- a/benchmarks-vrp.xlsx
+++ b/benchmarks-vrp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CF3BF-5D82-45F1-BE39-0A6463DD1667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DBC79-22D2-494C-8973-0BFD75732B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -165,13 +165,7 @@
     <t>            μ̲   =   0.1                     ,</t>
   </si>
   <si>
-    <t>            C̲   =   4                       ,</t>
-  </si>
-  <si>
     <t>            μ̅   =   0.4                     ,</t>
-  </si>
-  <si>
-    <t>            C̅   =   60                      ,</t>
   </si>
   <si>
     <t>            ρ   =   0.1</t>
@@ -375,6 +369,12 @@
   </si>
   <si>
     <t>                        :interopt!          ,</t>
+  </si>
+  <si>
+    <t>            c̲   =   4                       ,</t>
+  </si>
+  <si>
+    <t>            c̅   =   60                      ,</t>
   </si>
 </sst>
 </file>
@@ -1122,22 +1122,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V285"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="11" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5703125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18.54296875" style="11" customWidth="1"/>
+    <col min="2" max="11" width="9.1796875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.54296875" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -1147,7 +1147,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1157,19 +1157,19 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1177,12 +1177,12 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1190,7 +1190,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1198,25 +1198,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1224,17 +1224,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>13</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -1262,22 +1262,22 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>2</v>
       </c>
@@ -1286,16 +1286,16 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="18"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1314,47 +1314,47 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1365,23 +1365,23 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="K24" s="32"/>
     </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1390,7 +1390,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1401,9 +1401,9 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1425,9 +1425,9 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1450,9 +1450,9 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1475,9 +1475,9 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1499,9 +1499,9 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1523,9 +1523,9 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1547,9 +1547,9 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1571,9 +1571,9 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1595,9 +1595,9 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1619,7 +1619,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1670,7 +1670,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>30</v>
       </c>
@@ -1720,7 +1720,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
@@ -1829,16 +1829,16 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1850,9 +1850,9 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1864,9 +1864,9 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1878,9 +1878,9 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1892,9 +1892,9 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1906,9 +1906,9 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1920,9 +1920,9 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1934,9 +1934,9 @@
       <c r="I50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1948,7 +1948,7 @@
       <c r="K51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>36</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1965,7 +1965,7 @@
       <c r="K52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
         <v>37</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1985,7 +1985,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
         <v>38</v>
       </c>
@@ -1994,13 +1994,13 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
         <v>41</v>
       </c>
@@ -2009,73 +2009,73 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>39</v>
       </c>
@@ -2084,13 +2084,13 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>40</v>
       </c>
@@ -2099,50 +2099,50 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -2154,583 +2154,583 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="21"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="21"/>
       <c r="J66" s="20"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="21"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="J68" s="20"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="J69" s="20"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="J70" s="20"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J71" s="20"/>
     </row>
-    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J75" s="20"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="18"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="18"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="18"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="18"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="18"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="18"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="18"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="18"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="18"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="18"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="18"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="18"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="18"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="18"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="18"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="18"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="18"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="18"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="18"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="18"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="18"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="18"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="18"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="18"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="18"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="18"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="18"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="18"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="18"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="18"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="18"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="18"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="18"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="18"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="18"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="18"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="18"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="18"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="18"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="18"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="18"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="18"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="18"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="18"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="18"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="18"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="18"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="18"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="18"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="18"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="18"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="18"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="18"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="18"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="18"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="18"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="18"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="18"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="18"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="18"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="18"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="18"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="18"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="18"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="18"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="18"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="18"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="18"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="18"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="18"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="18"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="18"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="18"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="18"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="18"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="18"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="18"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="18"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="18"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="18"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="18"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="18"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="18"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="18"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="18"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="18"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="18"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="18"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="18"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="18"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="18"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="18"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="18"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="18"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="18"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="18"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="18"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="18"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="18"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="18"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="18"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="18"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="18"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="18"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="18"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="18"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="18"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="18"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="18"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="18"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="18"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="18"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="18"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="18"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="18"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="18"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="18"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="18"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="18"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="18"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="18"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="18"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="18"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="18"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="18"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="18"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="18"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="18"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="18"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="18"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="18"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="18"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="18"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="18"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="18"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="18"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="18"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="18"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="18"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="18"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="18"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="18"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="18"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="18"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="18"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="18"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="18"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="18"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="18"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="18"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="18"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="18"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="18"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="18"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="18"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="18"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="18"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="18"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="18"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="18"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="18"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="18"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="18"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="18"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="18"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="18"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="18"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="18"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="18"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="18"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="18"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="18"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="18"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="18"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="18"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="18"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="18"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="18"/>
     </row>
   </sheetData>
@@ -2746,23 +2746,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.5703125" style="22" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.54296875" style="22" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" style="22" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.5703125" style="22" customWidth="1"/>
-    <col min="25" max="16384" width="8.7109375" style="22"/>
+    <col min="16" max="24" width="8.54296875" style="22" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
@@ -2778,7 +2778,7 @@
       <c r="K1" s="34"/>
       <c r="L1" s="35"/>
       <c r="N1" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
@@ -2791,7 +2791,7 @@
       <c r="W1" s="34"/>
       <c r="X1" s="35"/>
     </row>
-    <row r="2" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="W2" s="34"/>
       <c r="X2" s="35"/>
     </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="42"/>
       <c r="B3" s="40"/>
       <c r="C3" s="23">
@@ -2891,9 +2891,9 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="26">
         <v>820</v>
@@ -2929,7 +2929,7 @@
         <v>855.11199999999997</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O4" s="24">
         <v>34.453000000000003</v>
@@ -2963,9 +2963,9 @@
       </c>
       <c r="BA4" s="25"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="26">
         <v>3055.23</v>
@@ -3001,7 +3001,7 @@
         <v>3181.49</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O5" s="24">
         <v>88.641000000000005</v>
@@ -3035,9 +3035,9 @@
       </c>
       <c r="BA5" s="25"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="26">
         <v>1395.85</v>
@@ -3073,7 +3073,7 @@
         <v>1359.22</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O6" s="24">
         <v>168.64</v>
@@ -3107,9 +3107,9 @@
       </c>
       <c r="BA6" s="25"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="26">
         <v>38684</v>
@@ -3145,7 +3145,7 @@
         <v>40863.9</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O7" s="24">
         <v>305.34500000000003</v>
@@ -3179,9 +3179,9 @@
       </c>
       <c r="BA7" s="25"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="26">
         <v>21736</v>
@@ -3217,7 +3217,7 @@
         <v>22719.599999999999</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O8" s="24">
         <v>480.01499999999999</v>
@@ -3251,9 +3251,9 @@
       </c>
       <c r="BA8" s="25"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="26">
         <v>1645.79</v>
@@ -3289,7 +3289,7 @@
         <v>1645.84</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O9" s="24">
         <v>40.798000000000002</v>
@@ -3322,9 +3322,9 @@
         <v>40.530999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="26">
         <v>1252.3699999999999</v>
@@ -3360,7 +3360,7 @@
         <v>1170.6600000000001</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O10" s="24">
         <v>102.45399999999999</v>
@@ -3393,9 +3393,9 @@
         <v>113.047</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="26">
         <v>828.94</v>
@@ -3431,7 +3431,7 @@
         <v>828.93700000000001</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O11" s="24">
         <v>54.811999999999998</v>
@@ -3464,9 +3464,9 @@
         <v>55.265999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="26">
         <v>591.55999999999995</v>
@@ -3502,7 +3502,7 @@
         <v>591.55700000000002</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O12" s="24">
         <v>202.73599999999999</v>
@@ -3535,9 +3535,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="26">
         <v>1696.94</v>
@@ -3573,7 +3573,7 @@
         <v>1662.25</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O13" s="24">
         <v>42.438000000000002</v>
@@ -3606,9 +3606,9 @@
         <v>43.171999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="27">
         <v>1406.91</v>
@@ -3644,7 +3644,7 @@
         <v>1279.6400000000001</v>
       </c>
       <c r="N14" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O14" s="24">
         <v>95.188000000000002</v>
@@ -3699,18 +3699,18 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="6" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="6" customWidth="1"/>
+    <col min="3" max="6" width="10.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -3719,15 +3719,15 @@
       <c r="F1" s="43"/>
       <c r="G1" s="44"/>
     </row>
-    <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="45" t="s">
         <v>1</v>
@@ -3735,10 +3735,10 @@
       <c r="E2" s="43"/>
       <c r="F2" s="44"/>
       <c r="G2" s="46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="35"/>
       <c r="B3" s="40"/>
       <c r="C3" s="47"/>
@@ -3753,9 +3753,9 @@
       </c>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4">
         <v>102</v>
@@ -3785,9 +3785,9 @@
       <c r="J4" s="8"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4">
         <v>151</v>
@@ -3817,9 +3817,9 @@
       <c r="J5" s="8"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4">
         <v>201</v>
@@ -3849,9 +3849,9 @@
       <c r="J6" s="8"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4">
         <v>251</v>
@@ -3881,9 +3881,9 @@
       <c r="J7" s="8"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4">
         <v>303</v>
@@ -3913,9 +3913,9 @@
       <c r="J8" s="8"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="29">
         <v>101</v>
@@ -3941,9 +3941,9 @@
         <v>40.770499999999991</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10" s="29">
         <v>101</v>
@@ -3969,9 +3969,9 @@
         <v>101.3175</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="29">
         <v>101</v>
@@ -3997,9 +3997,9 @@
         <v>54.990700000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="29">
         <v>101</v>
@@ -4025,9 +4025,9 @@
         <v>204.48910000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B13" s="29">
         <v>101</v>
@@ -4055,9 +4055,9 @@
       <c r="H13" s="7"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" s="29">
         <v>101</v>
@@ -4085,35 +4085,35 @@
       <c r="H14" s="7"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H15" s="7"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="H16" s="7"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H17" s="7"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H18" s="7"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H19" s="7"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H20" s="7"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H21" s="7"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H22" s="7"/>
       <c r="J22" s="8"/>
     </row>

--- a/benchmarks-vrp.xlsx
+++ b/benchmarks-vrp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50DBC79-22D2-494C-8973-0BFD75732B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A0A83F-D20F-4EDF-B886-1790AE767FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -72,16 +72,10 @@
     <t>OS</t>
   </si>
   <si>
-    <t>1.7.2</t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
     <t>VSCode</t>
-  </si>
-  <si>
-    <t>1.70.1</t>
   </si>
   <si>
     <t>Environment</t>
@@ -272,9 +266,6 @@
     <t>            m   =   100x                    ,</t>
   </si>
   <si>
-    <t>[1010, 1104, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
-  </si>
-  <si>
     <t>Intel(R) Core(TM) i7-7700 CPU @ 3.60GHz   3.60 GHz</t>
   </si>
   <si>
@@ -375,15 +366,21 @@
   </si>
   <si>
     <t>            c̅   =   60                      ,</t>
+  </si>
+  <si>
+    <t>1.84.2</t>
+  </si>
+  <si>
+    <t>1.9.4</t>
+  </si>
+  <si>
+    <t>[1010, 1106, 1509, 1604, 1905, 2104, 2412, 2703, 2710, 2807]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -721,10 +718,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -785,6 +780,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1122,182 +1118,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="11" customWidth="1"/>
-    <col min="2" max="11" width="9.1796875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.54296875" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="11"/>
+    <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
+    <col min="2" max="11" width="9.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.5703125" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="B4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="B9" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>16</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>21</v>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="16"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="18"/>
+        <v>66</v>
+      </c>
+      <c r="B19" s="16"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1314,83 +1310,83 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="31"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="32"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1401,9 +1397,9 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1425,9 +1421,9 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1450,9 +1446,9 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1462,7 +1458,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="K28" s="21"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1475,9 +1471,9 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1499,9 +1495,9 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1523,9 +1519,9 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1547,9 +1543,9 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1571,9 +1567,9 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1595,9 +1591,9 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1619,9 +1615,9 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1643,16 +1639,16 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1670,9 +1666,9 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1695,9 +1691,9 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1720,9 +1716,9 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1745,9 +1741,9 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1770,9 +1766,9 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1795,9 +1791,9 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1820,25 +1816,25 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1850,9 +1846,9 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1864,9 +1860,9 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1878,9 +1874,9 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1892,9 +1888,9 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1906,9 +1902,9 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1920,9 +1916,9 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1934,9 +1930,9 @@
       <c r="I50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1948,16 +1944,16 @@
       <c r="K51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="21" t="s">
-        <v>36</v>
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1965,16 +1961,16 @@
       <c r="K52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
-        <v>37</v>
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1985,164 +1981,164 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="21" t="s">
-        <v>38</v>
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="21" t="s">
-        <v>41</v>
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="21" t="s">
-        <v>110</v>
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="21" t="s">
-        <v>42</v>
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="21" t="s">
-        <v>111</v>
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>108</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="21" t="s">
-        <v>73</v>
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="21" t="s">
-        <v>39</v>
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="21" t="s">
-        <v>40</v>
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="21" t="s">
-        <v>70</v>
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>68</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="21" t="s">
-        <v>72</v>
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="21" t="s">
-        <v>43</v>
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -2154,584 +2150,584 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="21"/>
+    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="19"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="21"/>
-      <c r="J66" s="20"/>
+    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="J66" s="18"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="21"/>
+    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="J68" s="20"/>
+      <c r="J68" s="18"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="J69" s="20"/>
+      <c r="J69" s="18"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="J70" s="20"/>
+      <c r="J70" s="18"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J71" s="20"/>
-    </row>
-    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J75" s="20"/>
-    </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="18"/>
-    </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="18"/>
-    </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="18"/>
-    </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="18"/>
-    </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="18"/>
-    </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="18"/>
-    </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="18"/>
-    </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="18"/>
-    </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="18"/>
-    </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="18"/>
-    </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="18"/>
-    </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="18"/>
-    </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="18"/>
-    </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="18"/>
-    </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="18"/>
-    </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="18"/>
-    </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="18"/>
-    </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="18"/>
-    </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="18"/>
-    </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="18"/>
-    </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="18"/>
-    </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="18"/>
-    </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="18"/>
-    </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="18"/>
-    </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="18"/>
-    </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="18"/>
-    </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="18"/>
-    </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="18"/>
-    </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="18"/>
-    </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="18"/>
-    </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="18"/>
-    </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="18"/>
-    </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="18"/>
-    </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="18"/>
-    </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="18"/>
-    </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="18"/>
-    </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="18"/>
-    </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="18"/>
-    </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="18"/>
-    </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="18"/>
-    </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="18"/>
-    </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="18"/>
-    </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="18"/>
-    </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="18"/>
-    </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="18"/>
-    </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="18"/>
-    </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="18"/>
-    </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="18"/>
-    </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="18"/>
-    </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="18"/>
-    </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="18"/>
-    </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="18"/>
-    </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="18"/>
-    </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="18"/>
-    </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="18"/>
-    </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="18"/>
-    </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="18"/>
-    </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="18"/>
-    </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="18"/>
-    </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="18"/>
-    </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="18"/>
-    </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="18"/>
-    </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="18"/>
-    </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="18"/>
-    </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="18"/>
-    </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="18"/>
-    </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="18"/>
-    </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="18"/>
-    </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="18"/>
-    </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="18"/>
-    </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="18"/>
-    </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="18"/>
-    </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="18"/>
-    </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="18"/>
-    </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="18"/>
-    </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B183" s="18"/>
-    </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="18"/>
-    </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B185" s="18"/>
-    </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B186" s="18"/>
-    </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="18"/>
-    </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B188" s="18"/>
-    </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B189" s="18"/>
-    </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B190" s="18"/>
-    </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="18"/>
-    </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="18"/>
-    </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B193" s="18"/>
-    </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="18"/>
-    </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="18"/>
-    </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="18"/>
-    </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="18"/>
-    </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B198" s="18"/>
-    </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B199" s="18"/>
-    </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B200" s="18"/>
-    </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="18"/>
-    </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="18"/>
-    </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="18"/>
-    </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B204" s="18"/>
-    </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B205" s="18"/>
-    </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B206" s="18"/>
-    </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B207" s="18"/>
-    </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="18"/>
-    </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B209" s="18"/>
-    </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B210" s="18"/>
-    </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B211" s="18"/>
-    </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B212" s="18"/>
-    </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B213" s="18"/>
-    </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="18"/>
-    </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B215" s="18"/>
-    </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="18"/>
-    </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="18"/>
-    </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="18"/>
-    </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="18"/>
-    </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B220" s="18"/>
-    </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B221" s="18"/>
-    </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="18"/>
-    </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="18"/>
-    </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="18"/>
-    </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="18"/>
-    </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="18"/>
-    </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="18"/>
-    </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="18"/>
-    </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="18"/>
-    </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="18"/>
-    </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="18"/>
-    </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="18"/>
-    </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="18"/>
-    </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="18"/>
-    </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="18"/>
-    </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="18"/>
-    </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="18"/>
-    </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="18"/>
-    </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="18"/>
-    </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="18"/>
-    </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="18"/>
-    </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="18"/>
-    </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="18"/>
-    </row>
-    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="18"/>
-    </row>
-    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="18"/>
-    </row>
-    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="18"/>
-    </row>
-    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="18"/>
-    </row>
-    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="18"/>
-    </row>
-    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="18"/>
-    </row>
-    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="18"/>
-    </row>
-    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="18"/>
-    </row>
-    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="18"/>
-    </row>
-    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="18"/>
-    </row>
-    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="18"/>
-    </row>
-    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B255" s="18"/>
-    </row>
-    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="18"/>
-    </row>
-    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="18"/>
-    </row>
-    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="18"/>
-    </row>
-    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="18"/>
-    </row>
-    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="18"/>
-    </row>
-    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="18"/>
-    </row>
-    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="18"/>
-    </row>
-    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="18"/>
-    </row>
-    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="18"/>
-    </row>
-    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="18"/>
-    </row>
-    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="18"/>
-    </row>
-    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="18"/>
-    </row>
-    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="18"/>
-    </row>
-    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="18"/>
-    </row>
-    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="18"/>
-    </row>
-    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="18"/>
-    </row>
-    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="18"/>
-    </row>
-    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="18"/>
-    </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="18"/>
-    </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="18"/>
-    </row>
-    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="18"/>
-    </row>
-    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="18"/>
-    </row>
-    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B278" s="18"/>
-    </row>
-    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="18"/>
-    </row>
-    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="18"/>
-    </row>
-    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="18"/>
-    </row>
-    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="18"/>
-    </row>
-    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="18"/>
-    </row>
-    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="18"/>
-    </row>
-    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="18"/>
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="18"/>
+    </row>
+    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="18"/>
+    </row>
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J74" s="18"/>
+    </row>
+    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="18"/>
+    </row>
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="16"/>
+    </row>
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="16"/>
+    </row>
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="16"/>
+    </row>
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="16"/>
+    </row>
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="16"/>
+    </row>
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="16"/>
+    </row>
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="16"/>
+    </row>
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="16"/>
+    </row>
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="16"/>
+    </row>
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="16"/>
+    </row>
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="16"/>
+    </row>
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="16"/>
+    </row>
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="16"/>
+    </row>
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="16"/>
+    </row>
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="16"/>
+    </row>
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="16"/>
+    </row>
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="16"/>
+    </row>
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="16"/>
+    </row>
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="16"/>
+    </row>
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="16"/>
+    </row>
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="16"/>
+    </row>
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="16"/>
+    </row>
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="16"/>
+    </row>
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="16"/>
+    </row>
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="16"/>
+    </row>
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="16"/>
+    </row>
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="16"/>
+    </row>
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="16"/>
+    </row>
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="16"/>
+    </row>
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="16"/>
+    </row>
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="16"/>
+    </row>
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="16"/>
+    </row>
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="16"/>
+    </row>
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="16"/>
+    </row>
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="16"/>
+    </row>
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="16"/>
+    </row>
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="16"/>
+    </row>
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="16"/>
+    </row>
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="16"/>
+    </row>
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="16"/>
+    </row>
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="16"/>
+    </row>
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="16"/>
+    </row>
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="16"/>
+    </row>
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="16"/>
+    </row>
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="16"/>
+    </row>
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="16"/>
+    </row>
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="16"/>
+    </row>
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="16"/>
+    </row>
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="16"/>
+    </row>
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="16"/>
+    </row>
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="16"/>
+    </row>
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="16"/>
+    </row>
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="16"/>
+    </row>
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="16"/>
+    </row>
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="16"/>
+    </row>
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="16"/>
+    </row>
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="16"/>
+    </row>
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="16"/>
+    </row>
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="16"/>
+    </row>
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="16"/>
+    </row>
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="16"/>
+    </row>
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="16"/>
+    </row>
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="16"/>
+    </row>
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="16"/>
+    </row>
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="16"/>
+    </row>
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="16"/>
+    </row>
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="16"/>
+    </row>
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="16"/>
+    </row>
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="16"/>
+    </row>
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="16"/>
+    </row>
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="16"/>
+    </row>
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="16"/>
+    </row>
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="16"/>
+    </row>
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="16"/>
+    </row>
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="16"/>
+    </row>
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="16"/>
+    </row>
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="16"/>
+    </row>
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="16"/>
+    </row>
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="16"/>
+    </row>
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="16"/>
+    </row>
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="16"/>
+    </row>
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="16"/>
+    </row>
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="16"/>
+    </row>
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="16"/>
+    </row>
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="16"/>
+    </row>
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="16"/>
+    </row>
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="16"/>
+    </row>
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="16"/>
+    </row>
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="16"/>
+    </row>
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="16"/>
+    </row>
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="16"/>
+    </row>
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="16"/>
+    </row>
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="16"/>
+    </row>
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="16"/>
+    </row>
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="16"/>
+    </row>
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="16"/>
+    </row>
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="16"/>
+    </row>
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="16"/>
+    </row>
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="16"/>
+    </row>
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="16"/>
+    </row>
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="16"/>
+    </row>
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="16"/>
+    </row>
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="16"/>
+    </row>
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="16"/>
+    </row>
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="16"/>
+    </row>
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="16"/>
+    </row>
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="16"/>
+    </row>
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="16"/>
+    </row>
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="16"/>
+    </row>
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="16"/>
+    </row>
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="16"/>
+    </row>
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="16"/>
+    </row>
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="16"/>
+    </row>
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="16"/>
+    </row>
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="16"/>
+    </row>
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="16"/>
+    </row>
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="16"/>
+    </row>
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="16"/>
+    </row>
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="16"/>
+    </row>
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="16"/>
+    </row>
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="16"/>
+    </row>
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="16"/>
+    </row>
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="16"/>
+    </row>
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="16"/>
+    </row>
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="16"/>
+    </row>
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="16"/>
+    </row>
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="16"/>
+    </row>
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="16"/>
+    </row>
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="16"/>
+    </row>
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="16"/>
+    </row>
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="16"/>
+    </row>
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="16"/>
+    </row>
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="16"/>
+    </row>
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="16"/>
+    </row>
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="16"/>
+    </row>
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="16"/>
+    </row>
+    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="16"/>
+    </row>
+    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="16"/>
+    </row>
+    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="16"/>
+    </row>
+    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="16"/>
+    </row>
+    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="16"/>
+    </row>
+    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="16"/>
+    </row>
+    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="16"/>
+    </row>
+    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="16"/>
+    </row>
+    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="16"/>
+    </row>
+    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="16"/>
+    </row>
+    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="16"/>
+    </row>
+    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="16"/>
+    </row>
+    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="16"/>
+    </row>
+    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="16"/>
+    </row>
+    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="16"/>
+    </row>
+    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="16"/>
+    </row>
+    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="16"/>
+    </row>
+    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="16"/>
+    </row>
+    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="16"/>
+    </row>
+    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="16"/>
+    </row>
+    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="16"/>
+    </row>
+    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="16"/>
+    </row>
+    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="16"/>
+    </row>
+    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="16"/>
+    </row>
+    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="16"/>
+    </row>
+    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" s="16"/>
+    </row>
+    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="16"/>
+    </row>
+    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" s="16"/>
+    </row>
+    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="16"/>
+    </row>
+    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="16"/>
+    </row>
+    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" s="16"/>
+    </row>
+    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="16"/>
+    </row>
+    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="16"/>
+    </row>
+    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="16"/>
+    </row>
+    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" s="16"/>
+    </row>
+    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="16"/>
+    </row>
+    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="16"/>
+    </row>
+    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" s="16"/>
+    </row>
+    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="16"/>
+    </row>
+    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="16"/>
+    </row>
+    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" s="16"/>
+    </row>
+    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2746,935 +2742,935 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
   <dimension ref="A1:BA14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.54296875" style="22" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.453125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.54296875" style="22" customWidth="1"/>
-    <col min="25" max="16384" width="8.7265625" style="22"/>
+    <col min="1" max="1" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.5703125" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="8.5703125" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="8.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-      <c r="N1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-    </row>
-    <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="41" t="s">
+    <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34"/>
+      <c r="N1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="34"/>
+    </row>
+    <row r="2" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="38"/>
-      <c r="N2" s="39" t="s">
+      <c r="B2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="N2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
-    </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="23">
+      <c r="O2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
+    </row>
+    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="21">
         <v>1010</v>
       </c>
-      <c r="D3" s="23">
-        <v>1104</v>
-      </c>
-      <c r="E3" s="23">
+      <c r="D3" s="21">
+        <v>1106</v>
+      </c>
+      <c r="E3" s="21">
         <v>1509</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="21">
         <v>1604</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="21">
         <v>1905</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="21">
         <v>2104</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>2412</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="21">
         <v>2703</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="21">
         <v>2710</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="21">
         <v>2807</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="23">
+      <c r="N3" s="39"/>
+      <c r="O3" s="21">
         <v>1010</v>
       </c>
-      <c r="P3" s="23">
-        <v>1104</v>
-      </c>
-      <c r="Q3" s="23">
+      <c r="P3" s="21">
+        <v>1106</v>
+      </c>
+      <c r="Q3" s="21">
         <v>1509</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="21">
         <v>1604</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="21">
         <v>1905</v>
       </c>
-      <c r="T3" s="23">
+      <c r="T3" s="21">
         <v>2104</v>
       </c>
-      <c r="U3" s="23">
+      <c r="U3" s="21">
         <v>2412</v>
       </c>
-      <c r="V3" s="23">
+      <c r="V3" s="21">
         <v>2703</v>
       </c>
-      <c r="W3" s="23">
+      <c r="W3" s="21">
         <v>2710</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X3" s="21">
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="24">
+        <v>820</v>
+      </c>
+      <c r="C4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="D4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="E4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="F4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="G4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="H4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="I4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="J4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="K4" s="22">
+        <v>837.81</v>
+      </c>
+      <c r="L4" s="22">
+        <v>819.55799999999999</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="22">
+        <v>28.952999999999999</v>
+      </c>
+      <c r="P4" s="22">
+        <v>28.672999999999998</v>
+      </c>
+      <c r="Q4" s="22">
+        <v>28.687999999999999</v>
+      </c>
+      <c r="R4" s="22">
+        <v>28.719000000000001</v>
+      </c>
+      <c r="S4" s="22">
+        <v>28.952999999999999</v>
+      </c>
+      <c r="T4" s="22">
+        <v>28.655999999999999</v>
+      </c>
+      <c r="U4" s="22">
+        <v>28.937000000000001</v>
+      </c>
+      <c r="V4" s="22">
+        <v>28.937000000000001</v>
+      </c>
+      <c r="W4" s="22">
+        <v>29</v>
+      </c>
+      <c r="X4" s="26">
+        <v>28.687999999999999</v>
+      </c>
+      <c r="BA4" s="23"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="24">
+        <v>3055.23</v>
+      </c>
+      <c r="C5" s="22">
+        <v>3144.55</v>
+      </c>
+      <c r="D5" s="22">
+        <v>3161.61</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3089.74</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3128.24</v>
+      </c>
+      <c r="G5" s="22">
+        <v>3181.88</v>
+      </c>
+      <c r="H5" s="22">
+        <v>3188.4</v>
+      </c>
+      <c r="I5" s="22">
+        <v>3079.14</v>
+      </c>
+      <c r="J5" s="22">
+        <v>3115.54</v>
+      </c>
+      <c r="K5" s="22">
+        <v>3073.05</v>
+      </c>
+      <c r="L5" s="22">
+        <v>3084.46</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" s="22">
+        <v>91.468000000000004</v>
+      </c>
+      <c r="P5" s="22">
+        <v>91.25</v>
+      </c>
+      <c r="Q5" s="22">
+        <v>89.516000000000005</v>
+      </c>
+      <c r="R5" s="22">
+        <v>91.125</v>
+      </c>
+      <c r="S5" s="22">
+        <v>89.671999999999997</v>
+      </c>
+      <c r="T5" s="22">
+        <v>93.688000000000002</v>
+      </c>
+      <c r="U5" s="22">
+        <v>91.14</v>
+      </c>
+      <c r="V5" s="22">
+        <v>91.156000000000006</v>
+      </c>
+      <c r="W5" s="22">
+        <v>91.751000000000005</v>
+      </c>
+      <c r="X5" s="26">
+        <v>91.141000000000005</v>
+      </c>
+      <c r="BA5" s="23"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1395.85</v>
+      </c>
+      <c r="C6" s="22">
+        <v>1330.29</v>
+      </c>
+      <c r="D6" s="22">
+        <v>1352.85</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1332.38</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1354.12</v>
+      </c>
+      <c r="G6" s="22">
+        <v>1347.53</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1347.69</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1364.7</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1351.38</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1325.61</v>
+      </c>
+      <c r="L6" s="22">
+        <v>1348.39</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" s="22">
+        <v>178.828</v>
+      </c>
+      <c r="P6" s="22">
+        <v>176.172</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>176.06299999999999</v>
+      </c>
+      <c r="R6" s="22">
+        <v>177.81200000000001</v>
+      </c>
+      <c r="S6" s="22">
+        <v>178.999</v>
+      </c>
+      <c r="T6" s="22">
+        <v>179.18799999999999</v>
+      </c>
+      <c r="U6" s="22">
+        <v>178.71899999999999</v>
+      </c>
+      <c r="V6" s="22">
+        <v>178.43799999999999</v>
+      </c>
+      <c r="W6" s="22">
+        <v>177.173</v>
+      </c>
+      <c r="X6" s="26">
+        <v>180.547</v>
+      </c>
+      <c r="BA6" s="23"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="26">
-        <v>820</v>
-      </c>
-      <c r="C4" s="24">
-        <v>819.55799999999999</v>
-      </c>
-      <c r="D4" s="24">
-        <v>824.77700000000004</v>
-      </c>
-      <c r="E4" s="24">
-        <v>819.55799999999999</v>
-      </c>
-      <c r="F4" s="24">
-        <v>819.55799999999999</v>
-      </c>
-      <c r="G4" s="24">
-        <v>838.649</v>
-      </c>
-      <c r="H4" s="24">
-        <v>870.29200000000003</v>
-      </c>
-      <c r="I4" s="24">
-        <v>819.55799999999999</v>
-      </c>
-      <c r="J4" s="24">
-        <v>826.14</v>
-      </c>
-      <c r="K4" s="24">
-        <v>838.649</v>
-      </c>
-      <c r="L4" s="24">
-        <v>855.11199999999997</v>
-      </c>
-      <c r="N4" s="22" t="s">
+      <c r="B7" s="24">
+        <v>38684</v>
+      </c>
+      <c r="C7" s="22">
+        <v>39932.6</v>
+      </c>
+      <c r="D7" s="22">
+        <v>40109.800000000003</v>
+      </c>
+      <c r="E7" s="22">
+        <v>40146.9</v>
+      </c>
+      <c r="F7" s="22">
+        <v>40144.9</v>
+      </c>
+      <c r="G7" s="22">
+        <v>39888.400000000001</v>
+      </c>
+      <c r="H7" s="22">
+        <v>40099.699999999997</v>
+      </c>
+      <c r="I7" s="22">
+        <v>39760</v>
+      </c>
+      <c r="J7" s="22">
+        <v>39865.300000000003</v>
+      </c>
+      <c r="K7" s="22">
+        <v>39966.6</v>
+      </c>
+      <c r="L7" s="22">
+        <v>40501.4</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="O4" s="24">
-        <v>34.453000000000003</v>
-      </c>
-      <c r="P4" s="24">
-        <v>30.187000000000001</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>28.657</v>
-      </c>
-      <c r="R4" s="24">
-        <v>31.407</v>
-      </c>
-      <c r="S4" s="24">
-        <v>29.532</v>
-      </c>
-      <c r="T4" s="24">
-        <v>29.765000000000001</v>
-      </c>
-      <c r="U4" s="24">
-        <v>30.140999999999998</v>
-      </c>
-      <c r="V4" s="24">
-        <v>29.390999999999998</v>
-      </c>
-      <c r="W4" s="24">
-        <v>28.920999999999999</v>
-      </c>
-      <c r="X4" s="28">
-        <v>28.969000000000001</v>
-      </c>
-      <c r="BA4" s="25"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="O7" s="22">
+        <v>321.06299999999999</v>
+      </c>
+      <c r="P7" s="22">
+        <v>313.53199999999998</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>313.875</v>
+      </c>
+      <c r="R7" s="22">
+        <v>311.92200000000003</v>
+      </c>
+      <c r="S7" s="22">
+        <v>316.14</v>
+      </c>
+      <c r="T7" s="22">
+        <v>313.39100000000002</v>
+      </c>
+      <c r="U7" s="22">
+        <v>309.31200000000001</v>
+      </c>
+      <c r="V7" s="22">
+        <v>311.87599999999998</v>
+      </c>
+      <c r="W7" s="22">
+        <v>312.40600000000001</v>
+      </c>
+      <c r="X7" s="26">
+        <v>307.32900000000001</v>
+      </c>
+      <c r="BA7" s="23"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="26">
-        <v>3055.23</v>
-      </c>
-      <c r="C5" s="24">
-        <v>3148.57</v>
-      </c>
-      <c r="D5" s="24">
-        <v>3093.34</v>
-      </c>
-      <c r="E5" s="24">
-        <v>3207.91</v>
-      </c>
-      <c r="F5" s="24">
-        <v>3073.99</v>
-      </c>
-      <c r="G5" s="24">
-        <v>3094.29</v>
-      </c>
-      <c r="H5" s="24">
-        <v>3107.87</v>
-      </c>
-      <c r="I5" s="24">
-        <v>3106.47</v>
-      </c>
-      <c r="J5" s="24">
-        <v>3062.98</v>
-      </c>
-      <c r="K5" s="24">
-        <v>3078.12</v>
-      </c>
-      <c r="L5" s="24">
-        <v>3181.49</v>
-      </c>
-      <c r="N5" s="22" t="s">
+      <c r="B8" s="24">
+        <v>21736</v>
+      </c>
+      <c r="C8" s="22">
+        <v>23080.3</v>
+      </c>
+      <c r="D8" s="22">
+        <v>22576.2</v>
+      </c>
+      <c r="E8" s="22">
+        <v>23103.599999999999</v>
+      </c>
+      <c r="F8" s="22">
+        <v>22682</v>
+      </c>
+      <c r="G8" s="22">
+        <v>22902.2</v>
+      </c>
+      <c r="H8" s="22">
+        <v>22937.3</v>
+      </c>
+      <c r="I8" s="22">
+        <v>22468</v>
+      </c>
+      <c r="J8" s="22">
+        <v>22631.599999999999</v>
+      </c>
+      <c r="K8" s="22">
+        <v>22487.3</v>
+      </c>
+      <c r="L8" s="22">
+        <v>23041.8</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="24">
-        <v>88.641000000000005</v>
-      </c>
-      <c r="P5" s="24">
-        <v>89.938000000000002</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>88.078999999999994</v>
-      </c>
-      <c r="R5" s="24">
-        <v>88.906999999999996</v>
-      </c>
-      <c r="S5" s="24">
-        <v>88.483999999999995</v>
-      </c>
-      <c r="T5" s="24">
-        <v>88.766000000000005</v>
-      </c>
-      <c r="U5" s="24">
-        <v>90.936999999999998</v>
-      </c>
-      <c r="V5" s="24">
-        <v>88.593000000000004</v>
-      </c>
-      <c r="W5" s="24">
-        <v>88.641000000000005</v>
-      </c>
-      <c r="X5" s="28">
-        <v>89.063000000000002</v>
-      </c>
-      <c r="BA5" s="25"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="O8" s="22">
+        <v>495.67200000000003</v>
+      </c>
+      <c r="P8" s="22">
+        <v>490.68799999999999</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>491.92200000000003</v>
+      </c>
+      <c r="R8" s="22">
+        <v>491.28100000000001</v>
+      </c>
+      <c r="S8" s="22">
+        <v>497.64</v>
+      </c>
+      <c r="T8" s="22">
+        <v>494.28100000000001</v>
+      </c>
+      <c r="U8" s="22">
+        <v>493.34399999999999</v>
+      </c>
+      <c r="V8" s="22">
+        <v>490.06299999999999</v>
+      </c>
+      <c r="W8" s="22">
+        <v>489.81200000000001</v>
+      </c>
+      <c r="X8" s="26">
+        <v>490.17099999999999</v>
+      </c>
+      <c r="BA8" s="23"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="26">
-        <v>1395.85</v>
-      </c>
-      <c r="C6" s="24">
-        <v>1338.7</v>
-      </c>
-      <c r="D6" s="24">
-        <v>1337.55</v>
-      </c>
-      <c r="E6" s="24">
-        <v>1354.78</v>
-      </c>
-      <c r="F6" s="24">
-        <v>1368.52</v>
-      </c>
-      <c r="G6" s="24">
-        <v>1329.18</v>
-      </c>
-      <c r="H6" s="24">
-        <v>1333.84</v>
-      </c>
-      <c r="I6" s="24">
-        <v>1344.6</v>
-      </c>
-      <c r="J6" s="24">
-        <v>1340.81</v>
-      </c>
-      <c r="K6" s="24">
-        <v>1342.25</v>
-      </c>
-      <c r="L6" s="24">
-        <v>1359.22</v>
-      </c>
-      <c r="N6" s="22" t="s">
+      <c r="B9" s="24">
+        <v>1645.79</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1651.26</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1644.25</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1645.72</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1646.14</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1642.88</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1644.25</v>
+      </c>
+      <c r="I9" s="22">
+        <v>1642.88</v>
+      </c>
+      <c r="J9" s="22">
+        <v>1645.41</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1644.35</v>
+      </c>
+      <c r="L9" s="22">
+        <v>1644.82</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="24">
-        <v>168.64</v>
-      </c>
-      <c r="P6" s="24">
-        <v>168.15700000000001</v>
-      </c>
-      <c r="Q6" s="24">
-        <v>169.31200000000001</v>
-      </c>
-      <c r="R6" s="24">
-        <v>169.22</v>
-      </c>
-      <c r="S6" s="24">
-        <v>171.5</v>
-      </c>
-      <c r="T6" s="24">
-        <v>169.047</v>
-      </c>
-      <c r="U6" s="24">
-        <v>169.14</v>
-      </c>
-      <c r="V6" s="24">
-        <v>169.06299999999999</v>
-      </c>
-      <c r="W6" s="24">
-        <v>168.78100000000001</v>
-      </c>
-      <c r="X6" s="28">
-        <v>169.65700000000001</v>
-      </c>
-      <c r="BA6" s="25"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="O9" s="22">
+        <v>44.22</v>
+      </c>
+      <c r="P9" s="22">
+        <v>45.094000000000001</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>43.656999999999996</v>
+      </c>
+      <c r="R9" s="22">
+        <v>43.969000000000001</v>
+      </c>
+      <c r="S9" s="22">
+        <v>44.015999999999998</v>
+      </c>
+      <c r="T9" s="22">
+        <v>44.390999999999998</v>
+      </c>
+      <c r="U9" s="22">
+        <v>43.938000000000002</v>
+      </c>
+      <c r="V9" s="22">
+        <v>44.015000000000001</v>
+      </c>
+      <c r="W9" s="22">
+        <v>44.204000000000001</v>
+      </c>
+      <c r="X9" s="26">
+        <v>44.015000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="26">
-        <v>38684</v>
-      </c>
-      <c r="C7" s="24">
-        <v>39557.199999999997</v>
-      </c>
-      <c r="D7" s="24">
-        <v>39910</v>
-      </c>
-      <c r="E7" s="24">
-        <v>40032.6</v>
-      </c>
-      <c r="F7" s="24">
-        <v>40514.1</v>
-      </c>
-      <c r="G7" s="24">
-        <v>40157.699999999997</v>
-      </c>
-      <c r="H7" s="24">
-        <v>40212.6</v>
-      </c>
-      <c r="I7" s="24">
-        <v>40004.1</v>
-      </c>
-      <c r="J7" s="24">
-        <v>39956.699999999997</v>
-      </c>
-      <c r="K7" s="24">
-        <v>40110.400000000001</v>
-      </c>
-      <c r="L7" s="24">
-        <v>40863.9</v>
-      </c>
-      <c r="N7" s="22" t="s">
+      <c r="B10" s="24">
+        <v>1252.3699999999999</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1177.53</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1164.788</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1171.2</v>
+      </c>
+      <c r="F10" s="22">
+        <v>1168.1400000000001</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1179.08</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1169.1500000000001</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1153.25</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1152.96</v>
+      </c>
+      <c r="K10" s="22">
+        <v>1187.42</v>
+      </c>
+      <c r="L10" s="22">
+        <v>1208.17</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="24">
-        <v>305.34500000000003</v>
-      </c>
-      <c r="P7" s="24">
-        <v>301.34500000000003</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>303</v>
-      </c>
-      <c r="R7" s="24">
-        <v>301.59300000000002</v>
-      </c>
-      <c r="S7" s="24">
-        <v>299.06200000000001</v>
-      </c>
-      <c r="T7" s="24">
-        <v>300.01600000000002</v>
-      </c>
-      <c r="U7" s="24">
-        <v>298.98500000000001</v>
-      </c>
-      <c r="V7" s="24">
-        <v>298.65699999999998</v>
-      </c>
-      <c r="W7" s="24">
-        <v>304.17200000000003</v>
-      </c>
-      <c r="X7" s="28">
-        <v>301.15600000000001</v>
-      </c>
-      <c r="BA7" s="25"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="O10" s="22">
+        <v>106.501</v>
+      </c>
+      <c r="P10" s="22">
+        <v>102.14100000000001</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>103.96899999999999</v>
+      </c>
+      <c r="R10" s="22">
+        <v>108.15600000000001</v>
+      </c>
+      <c r="S10" s="22">
+        <v>105.328</v>
+      </c>
+      <c r="T10" s="22">
+        <v>93.406000000000006</v>
+      </c>
+      <c r="U10" s="22">
+        <v>96.891000000000005</v>
+      </c>
+      <c r="V10" s="22">
+        <v>89.796999999999997</v>
+      </c>
+      <c r="W10" s="22">
+        <v>106.251</v>
+      </c>
+      <c r="X10" s="26">
+        <v>118.453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="26">
-        <v>21736</v>
-      </c>
-      <c r="C8" s="24">
-        <v>22790.9</v>
-      </c>
-      <c r="D8" s="24">
-        <v>22482.799999999999</v>
-      </c>
-      <c r="E8" s="24">
-        <v>22498.7</v>
-      </c>
-      <c r="F8" s="24">
-        <v>22739.7</v>
-      </c>
-      <c r="G8" s="24">
-        <v>22523</v>
-      </c>
-      <c r="H8" s="24">
-        <v>22759.9</v>
-      </c>
-      <c r="I8" s="24">
-        <v>22644.400000000001</v>
-      </c>
-      <c r="J8" s="24">
-        <v>22508.1</v>
-      </c>
-      <c r="K8" s="24">
-        <v>22816</v>
-      </c>
-      <c r="L8" s="24">
-        <v>22719.599999999999</v>
-      </c>
-      <c r="N8" s="22" t="s">
+      <c r="B11" s="24">
+        <v>828.94</v>
+      </c>
+      <c r="C11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="D11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="E11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="F11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="G11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="H11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="I11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="J11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="K11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="L11" s="22">
+        <v>828.93700000000001</v>
+      </c>
+      <c r="N11" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="24">
-        <v>480.01499999999999</v>
-      </c>
-      <c r="P8" s="24">
-        <v>480.34399999999999</v>
-      </c>
-      <c r="Q8" s="24">
-        <v>483.45400000000001</v>
-      </c>
-      <c r="R8" s="24">
-        <v>477.86</v>
-      </c>
-      <c r="S8" s="24">
-        <v>483.51499999999999</v>
-      </c>
-      <c r="T8" s="24">
-        <v>482.07799999999997</v>
-      </c>
-      <c r="U8" s="24">
-        <v>476.81200000000001</v>
-      </c>
-      <c r="V8" s="24">
-        <v>475.85899999999998</v>
-      </c>
-      <c r="W8" s="24">
-        <v>480.31299999999999</v>
-      </c>
-      <c r="X8" s="28">
-        <v>484.70299999999997</v>
-      </c>
-      <c r="BA8" s="25"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="O11" s="22">
+        <v>63.813000000000002</v>
+      </c>
+      <c r="P11" s="22">
+        <v>59.234000000000002</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>58.594000000000001</v>
+      </c>
+      <c r="R11" s="22">
+        <v>58.920999999999999</v>
+      </c>
+      <c r="S11" s="22">
+        <v>58.171999999999997</v>
+      </c>
+      <c r="T11" s="22">
+        <v>57.765999999999998</v>
+      </c>
+      <c r="U11" s="22">
+        <v>58.405999999999999</v>
+      </c>
+      <c r="V11" s="22">
+        <v>58.015000000000001</v>
+      </c>
+      <c r="W11" s="22">
+        <v>58.296999999999997</v>
+      </c>
+      <c r="X11" s="26">
+        <v>57.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="26">
-        <v>1645.79</v>
-      </c>
-      <c r="C9" s="24">
-        <v>1644.55</v>
-      </c>
-      <c r="D9" s="24">
-        <v>1645.46</v>
-      </c>
-      <c r="E9" s="24">
-        <v>1652.47</v>
-      </c>
-      <c r="F9" s="24">
-        <v>1644.25</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1645.41</v>
-      </c>
-      <c r="H9" s="24">
-        <v>1643.34</v>
-      </c>
-      <c r="I9" s="24">
-        <v>1643.18</v>
-      </c>
-      <c r="J9" s="24">
-        <v>1647.01</v>
-      </c>
-      <c r="K9" s="24">
-        <v>1642.88</v>
-      </c>
-      <c r="L9" s="24">
-        <v>1645.84</v>
-      </c>
-      <c r="N9" s="22" t="s">
+      <c r="B12" s="24">
+        <v>591.55999999999995</v>
+      </c>
+      <c r="C12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="D12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="E12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="F12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="G12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="H12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="I12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="J12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="K12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="L12" s="22">
+        <v>591.55700000000002</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="24">
-        <v>40.798000000000002</v>
-      </c>
-      <c r="P9" s="24">
-        <v>41.171999999999997</v>
-      </c>
-      <c r="Q9" s="24">
-        <v>40.640999999999998</v>
-      </c>
-      <c r="R9" s="24">
-        <v>40.844000000000001</v>
-      </c>
-      <c r="S9" s="24">
-        <v>41.015999999999998</v>
-      </c>
-      <c r="T9" s="24">
-        <v>40.421999999999997</v>
-      </c>
-      <c r="U9" s="24">
-        <v>40.89</v>
-      </c>
-      <c r="V9" s="24">
-        <v>40.421999999999997</v>
-      </c>
-      <c r="W9" s="24">
-        <v>40.969000000000001</v>
-      </c>
-      <c r="X9" s="28">
-        <v>40.530999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="O12" s="22">
+        <v>207</v>
+      </c>
+      <c r="P12" s="22">
+        <v>206.953</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>208.595</v>
+      </c>
+      <c r="R12" s="22">
+        <v>207.15600000000001</v>
+      </c>
+      <c r="S12" s="22">
+        <v>206.22</v>
+      </c>
+      <c r="T12" s="22">
+        <v>208.10900000000001</v>
+      </c>
+      <c r="U12" s="22">
+        <v>208.51499999999999</v>
+      </c>
+      <c r="V12" s="22">
+        <v>206.73500000000001</v>
+      </c>
+      <c r="W12" s="22">
+        <v>208.047</v>
+      </c>
+      <c r="X12" s="26">
+        <v>208.67099999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="26">
-        <v>1252.3699999999999</v>
-      </c>
-      <c r="C10" s="24">
-        <v>1194.3900000000001</v>
-      </c>
-      <c r="D10" s="24">
-        <v>1178.24</v>
-      </c>
-      <c r="E10" s="24">
-        <v>1175.43</v>
-      </c>
-      <c r="F10" s="24">
-        <v>1178.51</v>
-      </c>
-      <c r="G10" s="24">
-        <v>1186.75</v>
-      </c>
-      <c r="H10" s="24">
-        <v>1176.05</v>
-      </c>
-      <c r="I10" s="24">
-        <v>1178.57</v>
-      </c>
-      <c r="J10" s="24">
-        <v>1156.1600000000001</v>
-      </c>
-      <c r="K10" s="24">
-        <v>1198.4100000000001</v>
-      </c>
-      <c r="L10" s="24">
-        <v>1170.6600000000001</v>
-      </c>
-      <c r="N10" s="22" t="s">
+      <c r="B13" s="24">
+        <v>1696.94</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1664.25</v>
+      </c>
+      <c r="D13" s="22">
+        <v>1646.52</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1660.1</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1648.65</v>
+      </c>
+      <c r="G13" s="22">
+        <v>1646.17</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1660.91</v>
+      </c>
+      <c r="I13" s="22">
+        <v>1639.82</v>
+      </c>
+      <c r="J13" s="22">
+        <v>1654.55</v>
+      </c>
+      <c r="K13" s="22">
+        <v>1661.96</v>
+      </c>
+      <c r="L13" s="22">
+        <v>1658.99</v>
+      </c>
+      <c r="N13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="O10" s="24">
-        <v>102.45399999999999</v>
-      </c>
-      <c r="P10" s="24">
-        <v>96.156999999999996</v>
-      </c>
-      <c r="Q10" s="24">
-        <v>106.328</v>
-      </c>
-      <c r="R10" s="24">
-        <v>96.593999999999994</v>
-      </c>
-      <c r="S10" s="24">
-        <v>104.15600000000001</v>
-      </c>
-      <c r="T10" s="24">
-        <v>108.407</v>
-      </c>
-      <c r="U10" s="24">
-        <v>98.141000000000005</v>
-      </c>
-      <c r="V10" s="24">
-        <v>97.671999999999997</v>
-      </c>
-      <c r="W10" s="24">
-        <v>90.218999999999994</v>
-      </c>
-      <c r="X10" s="28">
-        <v>113.047</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="O13" s="22">
+        <v>47.61</v>
+      </c>
+      <c r="P13" s="22">
+        <v>47.86</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>47.140999999999998</v>
+      </c>
+      <c r="R13" s="22">
+        <v>48.015000000000001</v>
+      </c>
+      <c r="S13" s="22">
+        <v>47.5</v>
+      </c>
+      <c r="T13" s="22">
+        <v>46.906999999999996</v>
+      </c>
+      <c r="U13" s="22">
+        <v>47.219000000000001</v>
+      </c>
+      <c r="V13" s="22">
+        <v>47.203000000000003</v>
+      </c>
+      <c r="W13" s="22">
+        <v>47.515999999999998</v>
+      </c>
+      <c r="X13" s="26">
+        <v>46.969000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="26">
-        <v>828.94</v>
-      </c>
-      <c r="C11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="D11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="E11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="F11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="G11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="H11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="I11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="J11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="K11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="L11" s="24">
-        <v>828.93700000000001</v>
-      </c>
-      <c r="N11" s="22" t="s">
+      <c r="B14" s="25">
+        <v>1406.91</v>
+      </c>
+      <c r="C14" s="22">
+        <v>1294.07</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1284.2</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1303.67</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1302.3800000000001</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1289.6600000000001</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1282.3</v>
+      </c>
+      <c r="I14" s="22">
+        <v>1302.26</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1287.8800000000001</v>
+      </c>
+      <c r="K14" s="22">
+        <v>1285.71</v>
+      </c>
+      <c r="L14" s="22">
+        <v>1295.3699999999999</v>
+      </c>
+      <c r="N14" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="24">
-        <v>54.811999999999998</v>
-      </c>
-      <c r="P11" s="24">
-        <v>54.594000000000001</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>55.515000000000001</v>
-      </c>
-      <c r="R11" s="24">
-        <v>55.546999999999997</v>
-      </c>
-      <c r="S11" s="24">
-        <v>54.704000000000001</v>
-      </c>
-      <c r="T11" s="24">
-        <v>54.765999999999998</v>
-      </c>
-      <c r="U11" s="24">
-        <v>54.671999999999997</v>
-      </c>
-      <c r="V11" s="24">
-        <v>55.093000000000004</v>
-      </c>
-      <c r="W11" s="24">
-        <v>54.938000000000002</v>
-      </c>
-      <c r="X11" s="28">
-        <v>55.265999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="26">
-        <v>591.55999999999995</v>
-      </c>
-      <c r="C12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="D12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="E12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="F12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="G12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="H12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="I12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="J12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="K12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="L12" s="24">
-        <v>591.55700000000002</v>
-      </c>
-      <c r="N12" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="24">
-        <v>202.73599999999999</v>
-      </c>
-      <c r="P12" s="24">
-        <v>205.499</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>205.15600000000001</v>
-      </c>
-      <c r="R12" s="24">
-        <v>204.59399999999999</v>
-      </c>
-      <c r="S12" s="24">
-        <v>204.047</v>
-      </c>
-      <c r="T12" s="24">
-        <v>203.21799999999999</v>
-      </c>
-      <c r="U12" s="24">
-        <v>205.32900000000001</v>
-      </c>
-      <c r="V12" s="24">
-        <v>206.875</v>
-      </c>
-      <c r="W12" s="24">
-        <v>205.43700000000001</v>
-      </c>
-      <c r="X12" s="28">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="26">
-        <v>1696.94</v>
-      </c>
-      <c r="C13" s="24">
-        <v>1659.05</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1644.73</v>
-      </c>
-      <c r="E13" s="24">
-        <v>1654.55</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1661.96</v>
-      </c>
-      <c r="G13" s="24">
-        <v>1653.56</v>
-      </c>
-      <c r="H13" s="24">
-        <v>1659.05</v>
-      </c>
-      <c r="I13" s="24">
-        <v>1644.45</v>
-      </c>
-      <c r="J13" s="24">
-        <v>1659.05</v>
-      </c>
-      <c r="K13" s="24">
-        <v>1646.17</v>
-      </c>
-      <c r="L13" s="24">
-        <v>1662.25</v>
-      </c>
-      <c r="N13" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="24">
-        <v>42.438000000000002</v>
-      </c>
-      <c r="P13" s="24">
-        <v>42.420999999999999</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>42.905999999999999</v>
-      </c>
-      <c r="R13" s="24">
-        <v>43.280999999999999</v>
-      </c>
-      <c r="S13" s="24">
-        <v>42.828000000000003</v>
-      </c>
-      <c r="T13" s="24">
-        <v>42.671999999999997</v>
-      </c>
-      <c r="U13" s="24">
-        <v>42.844000000000001</v>
-      </c>
-      <c r="V13" s="24">
-        <v>42.905999999999999</v>
-      </c>
-      <c r="W13" s="24">
-        <v>42.609000000000002</v>
-      </c>
-      <c r="X13" s="28">
-        <v>43.171999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="27">
-        <v>1406.91</v>
-      </c>
-      <c r="C14" s="24">
-        <v>1273.1500000000001</v>
-      </c>
-      <c r="D14" s="24">
-        <v>1291.4100000000001</v>
-      </c>
-      <c r="E14" s="24">
-        <v>1267.8800000000001</v>
-      </c>
-      <c r="F14" s="24">
-        <v>1287.7</v>
-      </c>
-      <c r="G14" s="24">
-        <v>1291.8399999999999</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1302.02</v>
-      </c>
-      <c r="I14" s="24">
-        <v>1269.5899999999999</v>
-      </c>
-      <c r="J14" s="24">
-        <v>1282.8499999999999</v>
-      </c>
-      <c r="K14" s="24">
-        <v>1285.46</v>
-      </c>
-      <c r="L14" s="24">
-        <v>1279.6400000000001</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="O14" s="24">
-        <v>95.188000000000002</v>
-      </c>
-      <c r="P14" s="24">
-        <v>89.031000000000006</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>91.188000000000002</v>
-      </c>
-      <c r="R14" s="24">
-        <v>92.751000000000005</v>
-      </c>
-      <c r="S14" s="24">
-        <v>103.03100000000001</v>
-      </c>
-      <c r="T14" s="24">
-        <v>91.578000000000003</v>
-      </c>
-      <c r="U14" s="24">
-        <v>93.921999999999997</v>
-      </c>
-      <c r="V14" s="24">
-        <v>91.686999999999998</v>
-      </c>
-      <c r="W14" s="24">
-        <v>83.563000000000002</v>
-      </c>
-      <c r="X14" s="28">
-        <v>91.188000000000002</v>
+      <c r="O14" s="22">
+        <v>97.733999999999995</v>
+      </c>
+      <c r="P14" s="22">
+        <v>93.796999999999997</v>
+      </c>
+      <c r="Q14" s="22">
+        <v>100.515</v>
+      </c>
+      <c r="R14" s="22">
+        <v>99.218000000000004</v>
+      </c>
+      <c r="S14" s="22">
+        <v>85.578000000000003</v>
+      </c>
+      <c r="T14" s="22">
+        <v>92.608999999999995</v>
+      </c>
+      <c r="U14" s="22">
+        <v>100.126</v>
+      </c>
+      <c r="V14" s="22">
+        <v>97.453999999999994</v>
+      </c>
+      <c r="W14" s="22">
+        <v>84.968999999999994</v>
+      </c>
+      <c r="X14" s="26">
+        <v>101.625</v>
       </c>
     </row>
   </sheetData>
@@ -3693,69 +3689,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" style="6" customWidth="1"/>
-    <col min="3" max="6" width="10.54296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
+    <col min="3" max="6" width="10.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="35"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="47"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="22" t="s">
-        <v>81</v>
+        <v>18</v>
+      </c>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B4" s="4">
         <v>102</v>
@@ -3764,30 +3760,27 @@
         <f>MAX(100, B4) * 50</f>
         <v>5100</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>MIN(data!C4:L4) / data!B4 -1</f>
         <v>-5.3902439024389182E-4</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f>AVERAGE(data!C4:L4) / data!B4 -1</f>
-        <v>1.6079390243902481E-2</v>
-      </c>
-      <c r="F4" s="7">
+        <v>1.6868292682925556E-3</v>
+      </c>
+      <c r="F4" s="6">
         <f>MAX(data!C4:L4) / data!B4 -1</f>
-        <v>6.1331707317073159E-2</v>
-      </c>
-      <c r="G4" s="8">
+        <v>2.1719512195121915E-2</v>
+      </c>
+      <c r="G4" s="29">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>30.142299999999995</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="22" t="s">
-        <v>82</v>
+        <v>28.820399999999999</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="B5" s="4">
         <v>151</v>
@@ -3796,30 +3789,27 @@
         <f t="shared" ref="C5:C14" si="0">MAX(100, B5) * 50</f>
         <v>7550</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>MIN(data!C5:L5) / data!B5 -1</f>
-        <v>2.5366339031758223E-3</v>
-      </c>
-      <c r="E5" s="7">
+        <v>5.8326214393025211E-3</v>
+      </c>
+      <c r="E5" s="6">
         <f>AVERAGE(data!C5:L5) / data!B5 -1</f>
-        <v>1.9727810999499162E-2</v>
-      </c>
-      <c r="F5" s="7">
+        <v>2.2725294004052099E-2</v>
+      </c>
+      <c r="F5" s="6">
         <f>MAX(data!C5:L5) / data!B5 -1</f>
-        <v>4.9973324430566457E-2</v>
-      </c>
-      <c r="G5" s="8">
+        <v>4.35875531465717E-2</v>
+      </c>
+      <c r="G5" s="29">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>89.004899999999992</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="22" t="s">
-        <v>83</v>
+        <v>91.190700000000007</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="B6" s="4">
         <v>201</v>
@@ -3828,30 +3818,27 @@
         <f t="shared" si="0"/>
         <v>10050</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <f>MIN(data!C6:L6) / data!B6 -1</f>
-        <v>-4.7763011784933807E-2</v>
-      </c>
-      <c r="E6" s="7">
+        <v>-5.0320593186947038E-2</v>
+      </c>
+      <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-3.6468818282766713E-2</v>
-      </c>
-      <c r="F6" s="7">
+        <v>-3.6075509546154683E-2</v>
+      </c>
+      <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
-        <v>-1.9579467707848242E-2</v>
-      </c>
-      <c r="G6" s="8">
+        <v>-2.2316151448937838E-2</v>
+      </c>
+      <c r="G6" s="29">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>169.2517</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="22" t="s">
-        <v>84</v>
+        <v>178.19390000000001</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="B7" s="4">
         <v>251</v>
@@ -3860,30 +3847,27 @@
         <f t="shared" si="0"/>
         <v>12550</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>MIN(data!C7:L7) / data!B7 -1</f>
-        <v>2.257263985110125E-2</v>
-      </c>
-      <c r="E7" s="7">
+        <v>2.7815117361182917E-2</v>
+      </c>
+      <c r="E7" s="6">
         <f>AVERAGE(data!C7:L7) / data!B7 -1</f>
-        <v>3.7429686692172615E-2</v>
-      </c>
-      <c r="F7" s="7">
+        <v>3.5093578740564624E-2</v>
+      </c>
+      <c r="F7" s="6">
         <f>MAX(data!C7:L7) / data!B7 -1</f>
-        <v>5.6351463137214397E-2</v>
-      </c>
-      <c r="G7" s="8">
+        <v>4.6980663840347381E-2</v>
+      </c>
+      <c r="G7" s="29">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>301.33310000000006</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
-        <v>85</v>
+        <v>313.08460000000002</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="B8" s="4">
         <v>303</v>
@@ -3892,230 +3876,217 @@
         <f t="shared" si="0"/>
         <v>15150</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <f>MIN(data!C8:L8) / data!B8 -1</f>
-        <v>3.4357747515642245E-2</v>
-      </c>
-      <c r="E8" s="7">
+        <v>3.36768494663231E-2</v>
+      </c>
+      <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>4.197230401177765E-2</v>
-      </c>
-      <c r="F8" s="7">
+        <v>4.8538369525211511E-2</v>
+      </c>
+      <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
-        <v>4.968715495031284E-2</v>
-      </c>
-      <c r="G8" s="8">
+        <v>6.2918660287081263E-2</v>
+      </c>
+      <c r="G8" s="29">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>480.49529999999993</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="29">
+        <v>492.48740000000009</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="27">
         <v>101</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5050</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <f>MIN(data!C9:L9) / data!B9 -1</f>
         <v>-1.7681478195881173E-3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <f>AVERAGE(data!C9:L9) / data!B9 -1</f>
-        <v>-2.1327143803262505E-4</v>
-      </c>
-      <c r="F9" s="7">
+        <v>-3.609208951321774E-4</v>
+      </c>
+      <c r="F9" s="6">
         <f>MAX(data!C9:L9) / data!B9 -1</f>
-        <v>4.0588410429034383E-3</v>
-      </c>
-      <c r="G9" s="8">
+        <v>3.323631812078176E-3</v>
+      </c>
+      <c r="G9" s="29">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>40.770499999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="29">
+        <v>44.151899999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="27">
         <v>101</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>5050</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <f>MIN(data!C10:L10) / data!B10 -1</f>
-        <v>-7.6822344834194256E-2</v>
-      </c>
-      <c r="E10" s="7">
+        <v>-7.9377500259507849E-2</v>
+      </c>
+      <c r="E10" s="6">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-5.833180290169826E-2</v>
-      </c>
-      <c r="F10" s="7">
+        <v>-6.3241054959796039E-2</v>
+      </c>
+      <c r="F10" s="6">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
-        <v>-4.3086308359350567E-2</v>
-      </c>
-      <c r="G10" s="8">
+        <v>-3.5293084312144063E-2</v>
+      </c>
+      <c r="G10" s="29">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>101.3175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="29">
+        <v>103.08930000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="27">
         <v>101</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>5050</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <f>MIN(data!C11:L11) / data!B11 -1</f>
         <v>-3.6190797887414305E-6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <f>AVERAGE(data!C11:L11) / data!B11 -1</f>
         <v>-3.6190797885193859E-6</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f>MAX(data!C11:L11) / data!B11 -1</f>
         <v>-3.6190797887414305E-6</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="29">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>54.990700000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="29">
+        <v>58.885799999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="27">
         <v>101</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>5050</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <f>MIN(data!C12:L12) / data!B12 -1</f>
         <v>-5.0713368042742957E-6</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <f>AVERAGE(data!C12:L12) / data!B12 -1</f>
         <v>-5.0713368044963403E-6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>MAX(data!C12:L12) / data!B12 -1</f>
         <v>-5.0713368042742957E-6</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="29">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>204.48910000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="29">
+        <v>207.60009999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="27">
         <v>101</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>5050</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <f>MIN(data!C13:L13) / data!B13 -1</f>
-        <v>-3.0932148455455111E-2</v>
-      </c>
-      <c r="E13" s="7">
+        <v>-3.3660589060308665E-2</v>
+      </c>
+      <c r="E13" s="6">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
-        <v>-2.5020330712930416E-2</v>
-      </c>
-      <c r="F13" s="7">
+        <v>-2.5191226560750457E-2</v>
+      </c>
+      <c r="F13" s="6">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
-        <v>-2.0442679175457057E-2</v>
-      </c>
-      <c r="G13" s="8">
+        <v>-1.9264087121524609E-2</v>
+      </c>
+      <c r="G13" s="29">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>42.807699999999997</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="29">
+        <v>47.393999999999991</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="27">
         <v>101</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>5050</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <f>MIN(data!C14:L14) / data!B14 -1</f>
-        <v>-9.8819398540062942E-2</v>
-      </c>
-      <c r="E14" s="7">
+        <v>-8.8569986708460502E-2</v>
+      </c>
+      <c r="E14" s="6">
         <f>AVERAGE(data!C14:L14) / data!B14 -1</f>
-        <v>-8.7962982706783044E-2</v>
-      </c>
-      <c r="F14" s="7">
+        <v>-8.1142361629386817E-2</v>
+      </c>
+      <c r="F14" s="6">
         <f>MAX(data!C14:L14) / data!B14 -1</f>
-        <v>-7.4553454023356225E-2</v>
-      </c>
-      <c r="G14" s="8">
+        <v>-7.3380671116133889E-2</v>
+      </c>
+      <c r="G14" s="29">
         <f>AVERAGE(data!O14:X14)</f>
-        <v>92.312700000000007</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="H15" s="7"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="H16" s="7"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H17" s="7"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H18" s="7"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H19" s="7"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H20" s="7"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H21" s="7"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H22" s="7"/>
-      <c r="J22" s="8"/>
+        <v>95.362499999999997</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/benchmarks-vrp.xlsx
+++ b/benchmarks-vrp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A0A83F-D20F-4EDF-B886-1790AE767FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A274ED-E4C5-4ECE-97F3-03EAA7E631E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -708,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -773,9 +773,6 @@
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1122,17 +1119,17 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="9" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5703125" style="9" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="18.54296875" style="9" customWidth="1"/>
+    <col min="2" max="11" width="9.1796875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.54296875" style="9" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="7"/>
@@ -1143,7 +1140,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -1153,14 +1150,14 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1170,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1183,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
@@ -1194,17 +1191,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -1220,17 +1217,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -1238,7 +1235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1255,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
@@ -1270,10 +1267,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1279,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>66</v>
       </c>
@@ -1291,7 +1288,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1310,7 +1307,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1326,7 +1323,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
@@ -1341,7 +1338,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1355,13 +1352,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="29"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>74</v>
       </c>
@@ -1375,9 +1372,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1394,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
@@ -1421,7 +1418,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -1446,7 +1443,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
@@ -1471,7 +1468,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -1495,7 +1492,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>93</v>
       </c>
@@ -1519,7 +1516,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>94</v>
       </c>
@@ -1543,7 +1540,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -1567,7 +1564,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -1591,7 +1588,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -1615,7 +1612,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1636,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1666,7 +1663,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
@@ -1691,7 +1688,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -1716,7 +1713,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1741,7 +1738,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1766,7 +1763,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1791,7 +1788,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1816,7 +1813,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -1832,7 +1829,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -1846,7 +1843,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
@@ -1860,7 +1857,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
@@ -1874,7 +1871,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>104</v>
       </c>
@@ -1888,7 +1885,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>105</v>
       </c>
@@ -1902,7 +1899,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
@@ -1916,7 +1913,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
@@ -1930,7 +1927,7 @@
       <c r="I50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1944,7 +1941,7 @@
       <c r="K51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
         <v>34</v>
       </c>
@@ -1961,7 +1958,7 @@
       <c r="K52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>35</v>
       </c>
@@ -1981,7 +1978,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>36</v>
       </c>
@@ -1996,7 +1993,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
         <v>39</v>
       </c>
@@ -2011,7 +2008,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>107</v>
       </c>
@@ -2026,7 +2023,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>40</v>
       </c>
@@ -2041,7 +2038,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
         <v>108</v>
       </c>
@@ -2056,7 +2053,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
         <v>71</v>
       </c>
@@ -2071,7 +2068,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
         <v>37</v>
       </c>
@@ -2086,7 +2083,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>38</v>
       </c>
@@ -2100,7 +2097,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
         <v>68</v>
       </c>
@@ -2114,7 +2111,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
         <v>70</v>
       </c>
@@ -2129,7 +2126,7 @@
       <c r="H63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19" t="s">
         <v>41</v>
       </c>
@@ -2150,583 +2147,583 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19"/>
       <c r="J66" s="18"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="J68" s="18"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="J69" s="18"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="J70" s="18"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J71" s="18"/>
     </row>
-    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J73" s="18"/>
     </row>
-    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J74" s="18"/>
     </row>
-    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J75" s="18"/>
     </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="16"/>
     </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="16"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="16"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="16"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="16"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="16"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="16"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="16"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="16"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="16"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="16"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="16"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="16"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="16"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="16"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="16"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="16"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="16"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="16"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="16"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="16"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="16"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="16"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="16"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="16"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="16"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="16"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="16"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="16"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="16"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="16"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="16"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="16"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="16"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="16"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="16"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="16"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="16"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="16"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="16"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="16"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="16"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="16"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="16"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="16"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="16"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="16"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="16"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="16"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="16"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="16"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="16"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="16"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="16"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="16"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="16"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="16"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="16"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="16"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="16"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="16"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="16"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="16"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="16"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="16"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="16"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="16"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="16"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="16"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="16"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="16"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="16"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="16"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="16"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="16"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="16"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="16"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="16"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="16"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="16"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="16"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="16"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="16"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="16"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="16"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="16"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="16"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="16"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="16"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="16"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="16"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="16"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="16"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="16"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="16"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="16"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="16"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="16"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="16"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="16"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="16"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="16"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="16"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="16"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="16"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="16"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="16"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="16"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="16"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="16"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="16"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="16"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="16"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="16"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="16"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="16"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="16"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="16"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="16"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="16"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="16"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="16"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="16"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="16"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="16"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="16"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="16"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="16"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="16"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="16"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="16"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="16"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="16"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="16"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="16"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="16"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="16"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="16"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="16"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="16"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="16"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="16"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="16"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="16"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="16"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="16"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="16"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="16"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="16"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="16"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="16"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="16"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="16"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="16"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="16"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="16"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="16"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="16"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="16"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="16"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="16"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="16"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="16"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="16"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="16"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="16"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="16"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="16"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="16"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="16"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="16"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="16"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="16"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="16"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="16"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="16"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="16"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="16"/>
     </row>
   </sheetData>
@@ -2743,88 +2740,88 @@
   <dimension ref="A1:BA14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.54296875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.5703125" style="20" customWidth="1"/>
-    <col min="25" max="16384" width="8.7109375" style="20"/>
+    <col min="16" max="24" width="8.54296875" style="20" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="N1" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="N1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34"/>
-    </row>
-    <row r="2" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="33"/>
+    </row>
+    <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="37"/>
-      <c r="N2" s="38" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="N2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="34"/>
-    </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="39"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="33"/>
+    </row>
+    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="40"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="21">
         <v>1010</v>
       </c>
@@ -2855,7 +2852,7 @@
       <c r="L3" s="21">
         <v>2807</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="21">
         <v>1010</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>78</v>
       </c>
@@ -2928,38 +2925,38 @@
         <v>78</v>
       </c>
       <c r="O4" s="22">
-        <v>28.952999999999999</v>
+        <v>26.047000000000001</v>
       </c>
       <c r="P4" s="22">
-        <v>28.672999999999998</v>
+        <v>25.829000000000001</v>
       </c>
       <c r="Q4" s="22">
-        <v>28.687999999999999</v>
+        <v>25.905999999999999</v>
       </c>
       <c r="R4" s="22">
-        <v>28.719000000000001</v>
+        <v>25.890999999999998</v>
       </c>
       <c r="S4" s="22">
-        <v>28.952999999999999</v>
+        <v>26.094000000000001</v>
       </c>
       <c r="T4" s="22">
-        <v>28.655999999999999</v>
+        <v>25.86</v>
       </c>
       <c r="U4" s="22">
-        <v>28.937000000000001</v>
+        <v>26.094000000000001</v>
       </c>
       <c r="V4" s="22">
-        <v>28.937000000000001</v>
+        <v>26.140999999999998</v>
       </c>
       <c r="W4" s="22">
-        <v>29</v>
-      </c>
-      <c r="X4" s="26">
-        <v>28.687999999999999</v>
+        <v>26.030999999999999</v>
+      </c>
+      <c r="X4" s="22">
+        <v>25.843</v>
       </c>
       <c r="BA4" s="23"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>79</v>
       </c>
@@ -3000,38 +2997,38 @@
         <v>79</v>
       </c>
       <c r="O5" s="22">
-        <v>91.468000000000004</v>
+        <v>79.373999999999995</v>
       </c>
       <c r="P5" s="22">
-        <v>91.25</v>
+        <v>78.936999999999998</v>
       </c>
       <c r="Q5" s="22">
-        <v>89.516000000000005</v>
+        <v>78.234999999999999</v>
       </c>
       <c r="R5" s="22">
-        <v>91.125</v>
+        <v>78.406000000000006</v>
       </c>
       <c r="S5" s="22">
-        <v>89.671999999999997</v>
+        <v>77.311999999999998</v>
       </c>
       <c r="T5" s="22">
-        <v>93.688000000000002</v>
+        <v>79.093999999999994</v>
       </c>
       <c r="U5" s="22">
-        <v>91.14</v>
+        <v>78.141000000000005</v>
       </c>
       <c r="V5" s="22">
-        <v>91.156000000000006</v>
+        <v>77.843999999999994</v>
       </c>
       <c r="W5" s="22">
-        <v>91.751000000000005</v>
-      </c>
-      <c r="X5" s="26">
-        <v>91.141000000000005</v>
+        <v>78.953000000000003</v>
+      </c>
+      <c r="X5" s="22">
+        <v>78.578000000000003</v>
       </c>
       <c r="BA5" s="23"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>80</v>
       </c>
@@ -3042,7 +3039,7 @@
         <v>1330.29</v>
       </c>
       <c r="D6" s="22">
-        <v>1352.85</v>
+        <v>1353.85</v>
       </c>
       <c r="E6" s="22">
         <v>1332.38</v>
@@ -3072,38 +3069,38 @@
         <v>80</v>
       </c>
       <c r="O6" s="22">
-        <v>178.828</v>
+        <v>151.18799999999999</v>
       </c>
       <c r="P6" s="22">
-        <v>176.172</v>
+        <v>150.40600000000001</v>
       </c>
       <c r="Q6" s="22">
-        <v>176.06299999999999</v>
+        <v>148.126</v>
       </c>
       <c r="R6" s="22">
-        <v>177.81200000000001</v>
+        <v>148.56299999999999</v>
       </c>
       <c r="S6" s="22">
-        <v>178.999</v>
+        <v>150.422</v>
       </c>
       <c r="T6" s="22">
-        <v>179.18799999999999</v>
+        <v>148.93700000000001</v>
       </c>
       <c r="U6" s="22">
-        <v>178.71899999999999</v>
+        <v>150.875</v>
       </c>
       <c r="V6" s="22">
-        <v>178.43799999999999</v>
+        <v>151.59299999999999</v>
       </c>
       <c r="W6" s="22">
-        <v>177.173</v>
-      </c>
-      <c r="X6" s="26">
-        <v>180.547</v>
+        <v>148.60900000000001</v>
+      </c>
+      <c r="X6" s="22">
+        <v>150.251</v>
       </c>
       <c r="BA6" s="23"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>81</v>
       </c>
@@ -3144,38 +3141,38 @@
         <v>81</v>
       </c>
       <c r="O7" s="22">
-        <v>321.06299999999999</v>
+        <v>277.12599999999998</v>
       </c>
       <c r="P7" s="22">
-        <v>313.53199999999998</v>
+        <v>271.85899999999998</v>
       </c>
       <c r="Q7" s="22">
-        <v>313.875</v>
+        <v>274.78100000000001</v>
       </c>
       <c r="R7" s="22">
-        <v>311.92200000000003</v>
+        <v>268.71800000000002</v>
       </c>
       <c r="S7" s="22">
-        <v>316.14</v>
+        <v>270.92200000000003</v>
       </c>
       <c r="T7" s="22">
-        <v>313.39100000000002</v>
+        <v>271.81299999999999</v>
       </c>
       <c r="U7" s="22">
-        <v>309.31200000000001</v>
+        <v>269.56299999999999</v>
       </c>
       <c r="V7" s="22">
-        <v>311.87599999999998</v>
+        <v>269.65600000000001</v>
       </c>
       <c r="W7" s="22">
-        <v>312.40600000000001</v>
-      </c>
-      <c r="X7" s="26">
-        <v>307.32900000000001</v>
+        <v>268.517</v>
+      </c>
+      <c r="X7" s="22">
+        <v>274.90699999999998</v>
       </c>
       <c r="BA7" s="23"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>82</v>
       </c>
@@ -3186,7 +3183,7 @@
         <v>23080.3</v>
       </c>
       <c r="D8" s="22">
-        <v>22576.2</v>
+        <v>22576.3</v>
       </c>
       <c r="E8" s="22">
         <v>23103.599999999999</v>
@@ -3216,38 +3213,38 @@
         <v>82</v>
       </c>
       <c r="O8" s="22">
-        <v>495.67200000000003</v>
+        <v>431.61</v>
       </c>
       <c r="P8" s="22">
-        <v>490.68799999999999</v>
+        <v>431.09500000000003</v>
       </c>
       <c r="Q8" s="22">
-        <v>491.92200000000003</v>
+        <v>430.20299999999997</v>
       </c>
       <c r="R8" s="22">
-        <v>491.28100000000001</v>
+        <v>423.15699999999998</v>
       </c>
       <c r="S8" s="22">
-        <v>497.64</v>
+        <v>426.125</v>
       </c>
       <c r="T8" s="22">
-        <v>494.28100000000001</v>
+        <v>423.76600000000002</v>
       </c>
       <c r="U8" s="22">
-        <v>493.34399999999999</v>
+        <v>421.21800000000002</v>
       </c>
       <c r="V8" s="22">
-        <v>490.06299999999999</v>
+        <v>421.37400000000002</v>
       </c>
       <c r="W8" s="22">
-        <v>489.81200000000001</v>
-      </c>
-      <c r="X8" s="26">
-        <v>490.17099999999999</v>
+        <v>420.82799999999997</v>
+      </c>
+      <c r="X8" s="22">
+        <v>419.375</v>
       </c>
       <c r="BA8" s="23"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>83</v>
       </c>
@@ -3288,37 +3285,37 @@
         <v>83</v>
       </c>
       <c r="O9" s="22">
-        <v>44.22</v>
+        <v>33.219000000000001</v>
       </c>
       <c r="P9" s="22">
-        <v>45.094000000000001</v>
+        <v>33.000999999999998</v>
       </c>
       <c r="Q9" s="22">
-        <v>43.656999999999996</v>
+        <v>32.563000000000002</v>
       </c>
       <c r="R9" s="22">
-        <v>43.969000000000001</v>
+        <v>32.75</v>
       </c>
       <c r="S9" s="22">
-        <v>44.015999999999998</v>
+        <v>32.734999999999999</v>
       </c>
       <c r="T9" s="22">
-        <v>44.390999999999998</v>
+        <v>33.829000000000001</v>
       </c>
       <c r="U9" s="22">
-        <v>43.938000000000002</v>
+        <v>33.313000000000002</v>
       </c>
       <c r="V9" s="22">
-        <v>44.015000000000001</v>
+        <v>33.296999999999997</v>
       </c>
       <c r="W9" s="22">
-        <v>44.204000000000001</v>
-      </c>
-      <c r="X9" s="26">
-        <v>44.015000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+        <v>32.938000000000002</v>
+      </c>
+      <c r="X9" s="22">
+        <v>32.655999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>84</v>
       </c>
@@ -3329,7 +3326,7 @@
         <v>1177.53</v>
       </c>
       <c r="D10" s="22">
-        <v>1164.788</v>
+        <v>1164.79</v>
       </c>
       <c r="E10" s="22">
         <v>1171.2</v>
@@ -3359,37 +3356,37 @@
         <v>84</v>
       </c>
       <c r="O10" s="22">
-        <v>106.501</v>
+        <v>77.061999999999998</v>
       </c>
       <c r="P10" s="22">
-        <v>102.14100000000001</v>
+        <v>69.125</v>
       </c>
       <c r="Q10" s="22">
-        <v>103.96899999999999</v>
+        <v>74.563000000000002</v>
       </c>
       <c r="R10" s="22">
-        <v>108.15600000000001</v>
+        <v>78.031000000000006</v>
       </c>
       <c r="S10" s="22">
-        <v>105.328</v>
+        <v>75.72</v>
       </c>
       <c r="T10" s="22">
-        <v>93.406000000000006</v>
+        <v>66.891000000000005</v>
       </c>
       <c r="U10" s="22">
-        <v>96.891000000000005</v>
+        <v>69.578000000000003</v>
       </c>
       <c r="V10" s="22">
-        <v>89.796999999999997</v>
+        <v>64.561999999999998</v>
       </c>
       <c r="W10" s="22">
-        <v>106.251</v>
-      </c>
-      <c r="X10" s="26">
-        <v>118.453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+        <v>76.578000000000003</v>
+      </c>
+      <c r="X10" s="22">
+        <v>84.343999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>85</v>
       </c>
@@ -3430,37 +3427,37 @@
         <v>85</v>
       </c>
       <c r="O11" s="22">
-        <v>63.813000000000002</v>
+        <v>42.189</v>
       </c>
       <c r="P11" s="22">
-        <v>59.234000000000002</v>
+        <v>41.921999999999997</v>
       </c>
       <c r="Q11" s="22">
-        <v>58.594000000000001</v>
+        <v>42.155999999999999</v>
       </c>
       <c r="R11" s="22">
-        <v>58.920999999999999</v>
+        <v>42.515000000000001</v>
       </c>
       <c r="S11" s="22">
-        <v>58.171999999999997</v>
+        <v>41.920999999999999</v>
       </c>
       <c r="T11" s="22">
-        <v>57.765999999999998</v>
+        <v>41.750999999999998</v>
       </c>
       <c r="U11" s="22">
-        <v>58.405999999999999</v>
+        <v>42.171999999999997</v>
       </c>
       <c r="V11" s="22">
-        <v>58.015000000000001</v>
+        <v>41.984000000000002</v>
       </c>
       <c r="W11" s="22">
-        <v>58.296999999999997</v>
-      </c>
-      <c r="X11" s="26">
-        <v>57.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+        <v>42.125</v>
+      </c>
+      <c r="X11" s="22">
+        <v>41.718000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>86</v>
       </c>
@@ -3501,37 +3498,37 @@
         <v>86</v>
       </c>
       <c r="O12" s="22">
-        <v>207</v>
+        <v>148.84399999999999</v>
       </c>
       <c r="P12" s="22">
-        <v>206.953</v>
+        <v>149.51499999999999</v>
       </c>
       <c r="Q12" s="22">
-        <v>208.595</v>
+        <v>150.36000000000001</v>
       </c>
       <c r="R12" s="22">
-        <v>207.15600000000001</v>
+        <v>148.68799999999999</v>
       </c>
       <c r="S12" s="22">
-        <v>206.22</v>
+        <v>148.422</v>
       </c>
       <c r="T12" s="22">
-        <v>208.10900000000001</v>
+        <v>148.749</v>
       </c>
       <c r="U12" s="22">
-        <v>208.51499999999999</v>
+        <v>149.15600000000001</v>
       </c>
       <c r="V12" s="22">
-        <v>206.73500000000001</v>
+        <v>148.39099999999999</v>
       </c>
       <c r="W12" s="22">
-        <v>208.047</v>
-      </c>
-      <c r="X12" s="26">
-        <v>208.67099999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+        <v>149.14099999999999</v>
+      </c>
+      <c r="X12" s="22">
+        <v>148.23400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>87</v>
       </c>
@@ -3542,7 +3539,7 @@
         <v>1664.25</v>
       </c>
       <c r="D13" s="22">
-        <v>1646.52</v>
+        <v>1646.53</v>
       </c>
       <c r="E13" s="22">
         <v>1660.1</v>
@@ -3572,37 +3569,37 @@
         <v>87</v>
       </c>
       <c r="O13" s="22">
-        <v>47.61</v>
+        <v>34.155999999999999</v>
       </c>
       <c r="P13" s="22">
-        <v>47.86</v>
+        <v>34.186999999999998</v>
       </c>
       <c r="Q13" s="22">
-        <v>47.140999999999998</v>
+        <v>34.173000000000002</v>
       </c>
       <c r="R13" s="22">
-        <v>48.015000000000001</v>
+        <v>34.546999999999997</v>
       </c>
       <c r="S13" s="22">
-        <v>47.5</v>
+        <v>34.296999999999997</v>
       </c>
       <c r="T13" s="22">
-        <v>46.906999999999996</v>
+        <v>34.078000000000003</v>
       </c>
       <c r="U13" s="22">
-        <v>47.219000000000001</v>
+        <v>34.125</v>
       </c>
       <c r="V13" s="22">
-        <v>47.203000000000003</v>
+        <v>34.14</v>
       </c>
       <c r="W13" s="22">
-        <v>47.515999999999998</v>
-      </c>
-      <c r="X13" s="26">
-        <v>46.969000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+        <v>34.469000000000001</v>
+      </c>
+      <c r="X13" s="22">
+        <v>34.265999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>88</v>
       </c>
@@ -3613,7 +3610,7 @@
         <v>1294.07</v>
       </c>
       <c r="D14" s="22">
-        <v>1284.2</v>
+        <v>1284.3</v>
       </c>
       <c r="E14" s="22">
         <v>1303.67</v>
@@ -3643,34 +3640,34 @@
         <v>88</v>
       </c>
       <c r="O14" s="22">
-        <v>97.733999999999995</v>
+        <v>70.766000000000005</v>
       </c>
       <c r="P14" s="22">
-        <v>93.796999999999997</v>
+        <v>67.89</v>
       </c>
       <c r="Q14" s="22">
-        <v>100.515</v>
+        <v>72.86</v>
       </c>
       <c r="R14" s="22">
-        <v>99.218000000000004</v>
+        <v>72.031000000000006</v>
       </c>
       <c r="S14" s="22">
-        <v>85.578000000000003</v>
+        <v>62.14</v>
       </c>
       <c r="T14" s="22">
-        <v>92.608999999999995</v>
+        <v>66.828000000000003</v>
       </c>
       <c r="U14" s="22">
-        <v>100.126</v>
+        <v>72.5</v>
       </c>
       <c r="V14" s="22">
-        <v>97.453999999999994</v>
+        <v>70.796999999999997</v>
       </c>
       <c r="W14" s="22">
-        <v>84.968999999999994</v>
-      </c>
-      <c r="X14" s="26">
-        <v>101.625</v>
+        <v>61.499000000000002</v>
+      </c>
+      <c r="X14" s="22">
+        <v>73.86</v>
       </c>
     </row>
   </sheetData>
@@ -3689,55 +3686,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="6" width="10.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="45" t="s">
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="46"/>
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="45"/>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
@@ -3747,9 +3744,9 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>78</v>
       </c>
@@ -3772,13 +3769,12 @@
         <f>MAX(data!C4:L4) / data!B4 -1</f>
         <v>2.1719512195121915E-2</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>28.820399999999999</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25.973599999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="20" t="s">
         <v>79</v>
       </c>
@@ -3801,13 +3797,12 @@
         <f>MAX(data!C5:L5) / data!B5 -1</f>
         <v>4.35875531465717E-2</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>91.190700000000007</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78.487400000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>80</v>
       </c>
@@ -3824,19 +3819,18 @@
       </c>
       <c r="E6" s="6">
         <f>AVERAGE(data!C6:L6) / data!B6 -1</f>
-        <v>-3.6075509546154683E-2</v>
+        <v>-3.600386861052407E-2</v>
       </c>
       <c r="F6" s="6">
         <f>MAX(data!C6:L6) / data!B6 -1</f>
         <v>-2.2316151448937838E-2</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>178.19390000000001</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>149.89699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>81</v>
       </c>
@@ -3859,13 +3853,12 @@
         <f>MAX(data!C7:L7) / data!B7 -1</f>
         <v>4.6980663840347381E-2</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>313.08460000000002</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>271.78620000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>82</v>
       </c>
@@ -3882,23 +3875,22 @@
       </c>
       <c r="E8" s="6">
         <f>AVERAGE(data!C8:L8) / data!B8 -1</f>
-        <v>4.8538369525211511E-2</v>
+        <v>4.8538829591461052E-2</v>
       </c>
       <c r="F8" s="6">
         <f>MAX(data!C8:L8) / data!B8 -1</f>
         <v>6.2918660287081263E-2</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>492.48740000000009</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>424.87510000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>101</v>
       </c>
       <c r="C9" s="2">
@@ -3917,16 +3909,16 @@
         <f>MAX(data!C9:L9) / data!B9 -1</f>
         <v>3.323631812078176E-3</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>44.151899999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33.030099999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>101</v>
       </c>
       <c r="C10" s="2">
@@ -3939,22 +3931,22 @@
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(data!C10:L10) / data!B10 -1</f>
-        <v>-6.3241054959796039E-2</v>
+        <v>-6.3240895262582142E-2</v>
       </c>
       <c r="F10" s="6">
         <f>MAX(data!C10:L10) / data!B10 -1</f>
         <v>-3.5293084312144063E-2</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>103.08930000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73.645399999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>101</v>
       </c>
       <c r="C11" s="2">
@@ -3973,16 +3965,16 @@
         <f>MAX(data!C11:L11) / data!B11 -1</f>
         <v>-3.6190797887414305E-6</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>58.885799999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42.045299999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>101</v>
       </c>
       <c r="C12" s="2">
@@ -4001,16 +3993,16 @@
         <f>MAX(data!C12:L12) / data!B12 -1</f>
         <v>-5.0713368042742957E-6</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>207.60009999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148.94999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>101</v>
       </c>
       <c r="C13" s="2">
@@ -4023,23 +4015,22 @@
       </c>
       <c r="E13" s="6">
         <f>AVERAGE(data!C13:L13) / data!B13 -1</f>
-        <v>-2.5191226560750457E-2</v>
+        <v>-2.5190637264723592E-2</v>
       </c>
       <c r="F13" s="6">
         <f>MAX(data!C13:L13) / data!B13 -1</f>
         <v>-1.9264087121524609E-2</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>47.393999999999991</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34.2438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26">
         <v>101</v>
       </c>
       <c r="C14" s="2">
@@ -4052,41 +4043,16 @@
       </c>
       <c r="E14" s="6">
         <f>AVERAGE(data!C14:L14) / data!B14 -1</f>
-        <v>-8.1142361629386817E-2</v>
+        <v>-8.1135253854191292E-2</v>
       </c>
       <c r="F14" s="6">
         <f>MAX(data!C14:L14) / data!B14 -1</f>
         <v>-7.3380671116133889E-2</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <f>AVERAGE(data!O14:X14)</f>
-        <v>95.362499999999997</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="6"/>
+        <v>69.117100000000008</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
